--- a/실무_엑셀_예제_파일/Chapter03/03-007.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8EA56F-E7F4-47C1-86D7-564E471EE538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF08A6E-8936-4B23-9B80-055386962D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="360" windowWidth="18996" windowHeight="11376" xr2:uid="{715F0425-E0E7-4C91-AA70-B4FC615F2804}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{715F0425-E0E7-4C91-AA70-B4FC615F2804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,13 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -406,19 +400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -427,22 +412,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -456,6 +429,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,304 +774,304 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J7" sqref="J7:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="9" width="7.8984375" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="3" max="9" width="7.9140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:10" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="8" t="s">
+    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>146</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>146</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>83</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>112</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>146</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>117</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="10">
         <f>SUM(C7:H7)</f>
         <v>750</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>106</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>94</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>81</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>114</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>82</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>102</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="11">
         <f t="shared" ref="I8:I14" si="0">SUM(C8:H8)</f>
         <v>579</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>90</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>135</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>105</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>91</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>131</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>110</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>662</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>114</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>124</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>87</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>113</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>88</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>139</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>119</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>80</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>144</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>131</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>103</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>146</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>723</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>150</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>106</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>136</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>133</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>143</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>128</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>91</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>144</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>102</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>111</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>82</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>94</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>134</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>101</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>144</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>81</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>118</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>89</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>667</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1084,5 +1084,55 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{4AE1E83D-D965-42AF-8025-1722C2EBE375}">
+          <x14:colorSeries theme="4" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="0.79998168889431442"/>
+          <x14:colorFirst theme="4" tint="-0.249977111117893"/>
+          <x14:colorLast theme="4" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="4" tint="-0.499984740745262"/>
+          <x14:colorLow theme="4" tint="-0.499984740745262"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C7:H7</xm:f>
+              <xm:sqref>J7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C8:H8</xm:f>
+              <xm:sqref>J8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C9:H9</xm:f>
+              <xm:sqref>J9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C10:H10</xm:f>
+              <xm:sqref>J10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C11:H11</xm:f>
+              <xm:sqref>J11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C12:H12</xm:f>
+              <xm:sqref>J12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C13:H13</xm:f>
+              <xm:sqref>J13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C14:H14</xm:f>
+              <xm:sqref>J14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>